--- a/Working_Hours_CabinetsDepot_03.10-03.16.2025.xlsx
+++ b/Working_Hours_CabinetsDepot_03.10-03.16.2025.xlsx
@@ -32,7 +32,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -49,6 +49,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFCCFF"/>
         <bgColor rgb="00FFCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCFFCC"/>
+        <bgColor rgb="00CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCCC"/>
+        <bgColor rgb="00FFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCFF"/>
+        <bgColor rgb="00CCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -70,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -85,6 +103,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +496,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -780,14 +816,14 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr"/>
@@ -911,9 +947,3797 @@
           <t>8.58</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>45.56</t>
+      <c r="K10" s="4" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Jing Li</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>45731</v>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr"/>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>45.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Raul Grajales</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>06:13</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Raul Grajales</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>06:09</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>13:33</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>15:48</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr"/>
+      <c r="I13" s="6" t="inlineStr"/>
+      <c r="J13" s="6" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="K13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Raul Grajales</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>06:09</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>15:02</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="K14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Raul Grajales</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>06:10</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="K15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Raul Grajales</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>06:12</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>15:02</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr"/>
+      <c r="I16" s="6" t="inlineStr"/>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Raul Grajales</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>45731</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>05:19</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>12:33</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr"/>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="K17" s="6" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Irene Moreno</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>13:01</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Irene Moreno</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr">
+        <is>
+          <t>07:57</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>16:03</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+      <c r="J19" s="8" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="K19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Irene Moreno</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>07:57</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>16:01</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Irene Moreno</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>13:33</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+      <c r="J21" s="8" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="K21" s="8" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Ava Zeng</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>08:14</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12:16</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Ava Zeng</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Ava Zeng</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12:11</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>12:29</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>16:59</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Ava Zeng</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>08:21</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>12:17</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>16:54</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Ava Zeng</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>08:14</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>17:37</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>Cesar Martinez</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr"/>
+      <c r="I27" s="4" t="inlineStr"/>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>Cesar Martinez</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>Cesar Martinez</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr"/>
+      <c r="I29" s="4" t="inlineStr"/>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>Cesar Martinez</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>06:19</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr"/>
+      <c r="I30" s="4" t="inlineStr"/>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Cesar Martinez</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="inlineStr"/>
+      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>Kaitlyn Rodriguez</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>12:33</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="H32" s="6" t="inlineStr"/>
+      <c r="I32" s="6" t="inlineStr"/>
+      <c r="J32" s="6" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="K32" s="6" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>Kaitlyn Rodriguez</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>09:37</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>12:43</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="H33" s="6" t="inlineStr"/>
+      <c r="I33" s="6" t="inlineStr"/>
+      <c r="J33" s="6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="K33" s="6" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>Kaitlyn Rodriguez</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>08:33</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="G34" s="6" t="inlineStr">
+        <is>
+          <t>14:52</t>
+        </is>
+      </c>
+      <c r="H34" s="6" t="inlineStr"/>
+      <c r="I34" s="6" t="inlineStr"/>
+      <c r="J34" s="6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="K34" s="6" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>Kaitlyn Rodriguez</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
+        <is>
+          <t>09:22</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>12:12</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="G35" s="6" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H35" s="6" t="inlineStr"/>
+      <c r="I35" s="6" t="inlineStr"/>
+      <c r="J35" s="6" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="K35" s="6" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>Alexander Salas Guzman</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="inlineStr">
+        <is>
+          <t>06:18</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="H36" s="8" t="inlineStr"/>
+      <c r="I36" s="8" t="inlineStr"/>
+      <c r="J36" s="8" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="K36" s="8" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>Alexander Salas Guzman</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="inlineStr">
+        <is>
+          <t>06:09</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H37" s="8" t="inlineStr"/>
+      <c r="I37" s="8" t="inlineStr"/>
+      <c r="J37" s="8" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="K37" s="8" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>Alexander Salas Guzman</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D38" s="8" t="inlineStr">
+        <is>
+          <t>06:08</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="H38" s="8" t="inlineStr"/>
+      <c r="I38" s="8" t="inlineStr"/>
+      <c r="J38" s="8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="K38" s="8" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>Alexander Salas Guzman</t>
+        </is>
+      </c>
+      <c r="B39" s="9" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="inlineStr">
+        <is>
+          <t>06:10</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H39" s="8" t="inlineStr"/>
+      <c r="I39" s="8" t="inlineStr"/>
+      <c r="J39" s="8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="K39" s="8" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>Alexander Salas Guzman</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D40" s="8" t="inlineStr">
+        <is>
+          <t>06:11</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F40" s="8" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>15:02</t>
+        </is>
+      </c>
+      <c r="H40" s="8" t="inlineStr"/>
+      <c r="I40" s="8" t="inlineStr"/>
+      <c r="J40" s="8" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="K40" s="8" t="inlineStr">
+        <is>
+          <t>41.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10" t="inlineStr">
+        <is>
+          <t>Alfredo Garcia Hernandez</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D41" s="10" t="inlineStr">
+        <is>
+          <t>06:09</t>
+        </is>
+      </c>
+      <c r="E41" s="10" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="G41" s="10" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="H41" s="10" t="inlineStr"/>
+      <c r="I41" s="10" t="inlineStr"/>
+      <c r="J41" s="10" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="K41" s="10" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="10" t="inlineStr">
+        <is>
+          <t>Alfredo Garcia Hernandez</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D42" s="10" t="inlineStr">
+        <is>
+          <t>06:09</t>
+        </is>
+      </c>
+      <c r="E42" s="10" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G42" s="10" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H42" s="10" t="inlineStr"/>
+      <c r="I42" s="10" t="inlineStr"/>
+      <c r="J42" s="10" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="K42" s="10" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="inlineStr">
+        <is>
+          <t>Alfredo Garcia Hernandez</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D43" s="10" t="inlineStr">
+        <is>
+          <t>06:09</t>
+        </is>
+      </c>
+      <c r="E43" s="10" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F43" s="10" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="G43" s="10" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="H43" s="10" t="inlineStr"/>
+      <c r="I43" s="10" t="inlineStr"/>
+      <c r="J43" s="10" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="K43" s="10" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="inlineStr">
+        <is>
+          <t>Alfredo Garcia Hernandez</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D44" s="10" t="inlineStr">
+        <is>
+          <t>06:10</t>
+        </is>
+      </c>
+      <c r="E44" s="10" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G44" s="10" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="H44" s="10" t="inlineStr"/>
+      <c r="I44" s="10" t="inlineStr"/>
+      <c r="J44" s="10" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="K44" s="10" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="10" t="inlineStr">
+        <is>
+          <t>Alfredo Garcia Hernandez</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D45" s="10" t="inlineStr">
+        <is>
+          <t>06:11</t>
+        </is>
+      </c>
+      <c r="E45" s="10" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F45" s="10" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="G45" s="10" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H45" s="10" t="inlineStr"/>
+      <c r="I45" s="10" t="inlineStr"/>
+      <c r="J45" s="10" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="K45" s="10" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Omar Dominguez</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>06:09</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Omar Dominguez</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>06:09</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Omar Dominguez</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>04:57</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Omar Dominguez</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>34.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>Eric Oliver Flores</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>06:31</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H50" s="4" t="inlineStr"/>
+      <c r="I50" s="4" t="inlineStr"/>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="K50" s="4" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>Eric Oliver Flores</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>06:31</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H51" s="4" t="inlineStr"/>
+      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="K51" s="4" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>Eric Oliver Flores</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H52" s="4" t="inlineStr"/>
+      <c r="I52" s="4" t="inlineStr"/>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="K52" s="4" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>Eric Oliver Flores</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr"/>
+      <c r="I53" s="4" t="inlineStr"/>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>Eric Oliver Flores</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>06:18</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H54" s="4" t="inlineStr"/>
+      <c r="I54" s="4" t="inlineStr"/>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>Maria T Ochoa</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>06:26</t>
+        </is>
+      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="G55" s="6" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H55" s="6" t="inlineStr"/>
+      <c r="I55" s="6" t="inlineStr"/>
+      <c r="J55" s="6" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="K55" s="6" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>Maria T Ochoa</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="G56" s="6" t="inlineStr">
+        <is>
+          <t>15:04</t>
+        </is>
+      </c>
+      <c r="H56" s="6" t="inlineStr"/>
+      <c r="I56" s="6" t="inlineStr"/>
+      <c r="J56" s="6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="K56" s="6" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>Maria T Ochoa</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>06:28</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="inlineStr">
+        <is>
+          <t>10:48</t>
+        </is>
+      </c>
+      <c r="G57" s="6" t="inlineStr">
+        <is>
+          <t>15:02</t>
+        </is>
+      </c>
+      <c r="H57" s="6" t="inlineStr"/>
+      <c r="I57" s="6" t="inlineStr"/>
+      <c r="J57" s="6" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="K57" s="6" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>Maria T Ochoa</t>
+        </is>
+      </c>
+      <c r="B58" s="7" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D58" s="6" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="G58" s="6" t="inlineStr">
+        <is>
+          <t>15:02</t>
+        </is>
+      </c>
+      <c r="H58" s="6" t="inlineStr"/>
+      <c r="I58" s="6" t="inlineStr"/>
+      <c r="J58" s="6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="K58" s="6" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>Maria T Ochoa</t>
+        </is>
+      </c>
+      <c r="B59" s="7" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="F59" s="6" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="G59" s="6" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H59" s="6" t="inlineStr"/>
+      <c r="I59" s="6" t="inlineStr"/>
+      <c r="J59" s="6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="K59" s="6" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>Tomas Lobato</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="inlineStr">
+        <is>
+          <t>06:16</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="F60" s="8" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>15:03</t>
+        </is>
+      </c>
+      <c r="H60" s="8" t="inlineStr"/>
+      <c r="I60" s="8" t="inlineStr"/>
+      <c r="J60" s="8" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="K60" s="8" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>Tomas Lobato</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
+        <is>
+          <t>06:14</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H61" s="8" t="inlineStr"/>
+      <c r="I61" s="8" t="inlineStr"/>
+      <c r="J61" s="8" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="K61" s="8" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>Tomas Lobato</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D62" s="8" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F62" s="8" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H62" s="8" t="inlineStr"/>
+      <c r="I62" s="8" t="inlineStr"/>
+      <c r="J62" s="8" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="K62" s="8" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>Tomas Lobato</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D63" s="8" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>15:03</t>
+        </is>
+      </c>
+      <c r="H63" s="8" t="inlineStr"/>
+      <c r="I63" s="8" t="inlineStr"/>
+      <c r="J63" s="8" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="K63" s="8" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10" t="inlineStr">
+        <is>
+          <t>RICARDO BERMUDEZ</t>
+        </is>
+      </c>
+      <c r="B64" s="11" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C64" s="10" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D64" s="10" t="inlineStr">
+        <is>
+          <t>06:37</t>
+        </is>
+      </c>
+      <c r="E64" s="10" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="G64" s="10" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H64" s="10" t="inlineStr"/>
+      <c r="I64" s="10" t="inlineStr"/>
+      <c r="J64" s="10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="K64" s="10" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="10" t="inlineStr">
+        <is>
+          <t>RICARDO BERMUDEZ</t>
+        </is>
+      </c>
+      <c r="B65" s="11" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C65" s="10" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D65" s="10" t="inlineStr">
+        <is>
+          <t>06:31</t>
+        </is>
+      </c>
+      <c r="E65" s="10" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="G65" s="10" t="inlineStr">
+        <is>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="H65" s="10" t="inlineStr"/>
+      <c r="I65" s="10" t="inlineStr"/>
+      <c r="J65" s="10" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="K65" s="10" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="10" t="inlineStr">
+        <is>
+          <t>RICARDO BERMUDEZ</t>
+        </is>
+      </c>
+      <c r="B66" s="11" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C66" s="10" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D66" s="10" t="inlineStr">
+        <is>
+          <t>06:32</t>
+        </is>
+      </c>
+      <c r="E66" s="10" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="F66" s="10" t="inlineStr">
+        <is>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="G66" s="10" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="H66" s="10" t="inlineStr"/>
+      <c r="I66" s="10" t="inlineStr"/>
+      <c r="J66" s="10" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="K66" s="10" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Adam Chu</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>13:43</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Adam Chu</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>07:46</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>13:49</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>16:16</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Adam Chu</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>07:03</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>13:36</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>16:03</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Adam Chu</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>29.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>JESUS LOBATO</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>06:55</t>
+        </is>
+      </c>
+      <c r="E71" s="4" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="G71" s="4" t="inlineStr">
+        <is>
+          <t>15:06</t>
+        </is>
+      </c>
+      <c r="H71" s="4" t="inlineStr"/>
+      <c r="I71" s="4" t="inlineStr"/>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>MANUEL SALAS</t>
+        </is>
+      </c>
+      <c r="B72" s="7" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="H72" s="6" t="inlineStr"/>
+      <c r="I72" s="6" t="inlineStr"/>
+      <c r="J72" s="6" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="K72" s="6" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>MANUEL SALAS</t>
+        </is>
+      </c>
+      <c r="B73" s="7" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>06:25</t>
+        </is>
+      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="F73" s="6" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
+      <c r="G73" s="6" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="H73" s="6" t="inlineStr"/>
+      <c r="I73" s="6" t="inlineStr"/>
+      <c r="J73" s="6" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="K73" s="6" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>MANUEL SALAS</t>
+        </is>
+      </c>
+      <c r="B74" s="7" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
+        <is>
+          <t>04:52</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="F74" s="6" t="inlineStr"/>
+      <c r="G74" s="6" t="inlineStr"/>
+      <c r="H74" s="6" t="inlineStr"/>
+      <c r="I74" s="6" t="inlineStr"/>
+      <c r="J74" s="6" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="K74" s="6" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>MANUEL SALAS</t>
+        </is>
+      </c>
+      <c r="B75" s="7" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>06:25</t>
+        </is>
+      </c>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="F75" s="6" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="G75" s="6" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H75" s="6" t="inlineStr"/>
+      <c r="I75" s="6" t="inlineStr"/>
+      <c r="J75" s="6" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="K75" s="6" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>MANUEL SALAS</t>
+        </is>
+      </c>
+      <c r="B76" s="7" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr"/>
+      <c r="E76" s="6" t="inlineStr"/>
+      <c r="F76" s="6" t="inlineStr"/>
+      <c r="G76" s="6" t="inlineStr"/>
+      <c r="H76" s="6" t="inlineStr"/>
+      <c r="I76" s="6" t="inlineStr"/>
+      <c r="J76" s="6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K76" s="6" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>MANUEL SALAS</t>
+        </is>
+      </c>
+      <c r="B77" s="7" t="n">
+        <v>45731</v>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>05:41</t>
+        </is>
+      </c>
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F77" s="6" t="inlineStr"/>
+      <c r="G77" s="6" t="inlineStr"/>
+      <c r="H77" s="6" t="inlineStr"/>
+      <c r="I77" s="6" t="inlineStr"/>
+      <c r="J77" s="6" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="K77" s="6" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="inlineStr">
+        <is>
+          <t>Constantino Lobato</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C78" s="8" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D78" s="8" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="E78" s="8" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="F78" s="8" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G78" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H78" s="8" t="inlineStr"/>
+      <c r="I78" s="8" t="inlineStr"/>
+      <c r="J78" s="8" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="K78" s="8" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="inlineStr">
+        <is>
+          <t>Constantino Lobato</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C79" s="8" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D79" s="8" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="E79" s="8" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="G79" s="8" t="inlineStr">
+        <is>
+          <t>15:03</t>
+        </is>
+      </c>
+      <c r="H79" s="8" t="inlineStr"/>
+      <c r="I79" s="8" t="inlineStr"/>
+      <c r="J79" s="8" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="K79" s="8" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="inlineStr">
+        <is>
+          <t>Constantino Lobato</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C80" s="8" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D80" s="8" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="E80" s="8" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+      <c r="F80" s="8" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="G80" s="8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H80" s="8" t="inlineStr"/>
+      <c r="I80" s="8" t="inlineStr"/>
+      <c r="J80" s="8" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="K80" s="8" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="inlineStr">
+        <is>
+          <t>Constantino Lobato</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C81" s="8" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D81" s="8" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="E81" s="8" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="G81" s="8" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H81" s="8" t="inlineStr"/>
+      <c r="I81" s="8" t="inlineStr"/>
+      <c r="J81" s="8" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="K81" s="8" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="inlineStr">
+        <is>
+          <t>Constantino Lobato</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C82" s="8" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D82" s="8" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="E82" s="8" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F82" s="8" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G82" s="8" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+      <c r="H82" s="8" t="inlineStr"/>
+      <c r="I82" s="8" t="inlineStr"/>
+      <c r="J82" s="8" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="K82" s="8" t="inlineStr">
+        <is>
+          <t>41.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10" t="inlineStr">
+        <is>
+          <t>YONI MOLALES</t>
+        </is>
+      </c>
+      <c r="B83" s="11" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C83" s="10" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D83" s="10" t="inlineStr">
+        <is>
+          <t>07:44</t>
+        </is>
+      </c>
+      <c r="E83" s="10" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="G83" s="10" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H83" s="10" t="inlineStr"/>
+      <c r="I83" s="10" t="inlineStr"/>
+      <c r="J83" s="10" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="K83" s="10" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="10" t="inlineStr">
+        <is>
+          <t>YONI MOLALES</t>
+        </is>
+      </c>
+      <c r="B84" s="11" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C84" s="10" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D84" s="10" t="inlineStr">
+        <is>
+          <t>06:36</t>
+        </is>
+      </c>
+      <c r="E84" s="10" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F84" s="10" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="G84" s="10" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H84" s="10" t="inlineStr"/>
+      <c r="I84" s="10" t="inlineStr"/>
+      <c r="J84" s="10" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="K84" s="10" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="10" t="inlineStr">
+        <is>
+          <t>YONI MOLALES</t>
+        </is>
+      </c>
+      <c r="B85" s="11" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C85" s="10" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D85" s="10" t="inlineStr">
+        <is>
+          <t>06:10</t>
+        </is>
+      </c>
+      <c r="E85" s="10" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F85" s="10" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="G85" s="10" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H85" s="10" t="inlineStr"/>
+      <c r="I85" s="10" t="inlineStr"/>
+      <c r="J85" s="10" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="K85" s="10" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="10" t="inlineStr">
+        <is>
+          <t>YONI MOLALES</t>
+        </is>
+      </c>
+      <c r="B86" s="11" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C86" s="10" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D86" s="10" t="inlineStr">
+        <is>
+          <t>06:31</t>
+        </is>
+      </c>
+      <c r="E86" s="10" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F86" s="10" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="G86" s="10" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H86" s="10" t="inlineStr"/>
+      <c r="I86" s="10" t="inlineStr"/>
+      <c r="J86" s="10" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="K86" s="10" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="10" t="inlineStr">
+        <is>
+          <t>YONI MOLALES</t>
+        </is>
+      </c>
+      <c r="B87" s="11" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C87" s="10" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D87" s="10" t="inlineStr">
+        <is>
+          <t>06:16</t>
+        </is>
+      </c>
+      <c r="E87" s="10" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="F87" s="10" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="G87" s="10" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H87" s="10" t="inlineStr"/>
+      <c r="I87" s="10" t="inlineStr"/>
+      <c r="J87" s="10" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="K87" s="10" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="10" t="inlineStr">
+        <is>
+          <t>YONI MOLALES</t>
+        </is>
+      </c>
+      <c r="B88" s="11" t="n">
+        <v>45731</v>
+      </c>
+      <c r="C88" s="10" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="D88" s="10" t="inlineStr">
+        <is>
+          <t>05:34</t>
+        </is>
+      </c>
+      <c r="E88" s="10" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="F88" s="10" t="inlineStr"/>
+      <c r="G88" s="10" t="inlineStr"/>
+      <c r="H88" s="10" t="inlineStr"/>
+      <c r="I88" s="10" t="inlineStr"/>
+      <c r="J88" s="10" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="K88" s="10" t="inlineStr">
+        <is>
+          <t>46.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>EDI HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>06:31</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr"/>
+      <c r="I89" s="2" t="inlineStr"/>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>EDI HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>EDI HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>06:18</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>12:07</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr"/>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>EDI HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>06:26</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr"/>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>EDI HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr"/>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>42.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>URIEL GUZMAN</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
+        <is>
+          <t>06:09</t>
+        </is>
+      </c>
+      <c r="E94" s="4" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G94" s="4" t="inlineStr">
+        <is>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="H94" s="4" t="inlineStr"/>
+      <c r="I94" s="4" t="inlineStr"/>
+      <c r="J94" s="4" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="K94" s="4" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>URIEL GUZMAN</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D95" s="4" t="inlineStr">
+        <is>
+          <t>06:09</t>
+        </is>
+      </c>
+      <c r="E95" s="4" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F95" s="4" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G95" s="4" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="H95" s="4" t="inlineStr"/>
+      <c r="I95" s="4" t="inlineStr"/>
+      <c r="J95" s="4" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="K95" s="4" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>URIEL GUZMAN</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t>04:58</t>
+        </is>
+      </c>
+      <c r="E96" s="4" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G96" s="4" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="H96" s="4" t="inlineStr"/>
+      <c r="I96" s="4" t="inlineStr"/>
+      <c r="J96" s="4" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="K96" s="4" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>URIEL GUZMAN</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t>06:10</t>
+        </is>
+      </c>
+      <c r="E97" s="4" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F97" s="4" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="G97" s="4" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="H97" s="4" t="inlineStr"/>
+      <c r="I97" s="4" t="inlineStr"/>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="K97" s="4" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>URIEL GUZMAN</t>
+        </is>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>06:11</t>
+        </is>
+      </c>
+      <c r="E98" s="4" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="G98" s="4" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="H98" s="4" t="inlineStr"/>
+      <c r="I98" s="4" t="inlineStr"/>
+      <c r="J98" s="4" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="K98" s="4" t="inlineStr">
+        <is>
+          <t>43.12</t>
         </is>
       </c>
     </row>
